--- a/Work/SQL_SQOOP_OOZIE/metrics.xlsx
+++ b/Work/SQL_SQOOP_OOZIE/metrics.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SQL_Server" sheetId="1" r:id="rId1"/>
+    <sheet name="My_SQL" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Records</t>
   </si>
@@ -76,13 +76,37 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Record Count</t>
+  </si>
+  <si>
+    <t>Total Time taken</t>
+  </si>
+  <si>
+    <t>Time Taken for Join</t>
+  </si>
+  <si>
+    <t>Time taken for Data load</t>
+  </si>
+  <si>
+    <t>Incremental</t>
+  </si>
+  <si>
+    <t>Initial Load</t>
+  </si>
+  <si>
+    <t>Initial Table Records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +114,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,6 +178,26 @@
     <tableColumn id="6" name="Column1"/>
     <tableColumn id="7" name="Column2"/>
     <tableColumn id="8" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11"/>
+  <sortState ref="A2:F11">
+    <sortCondition descending="1" ref="A1:A11"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Initial Table Records"/>
+    <tableColumn id="3" name="Record Count"/>
+    <tableColumn id="4" name="Total Time taken"/>
+    <tableColumn id="5" name="Time Taken for Join"/>
+    <tableColumn id="6" name="Time taken for Data load">
+      <calculatedColumnFormula>D2-E2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F4:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" activeCellId="1" sqref="F7:F8 H11"/>
     </sheetView>
   </sheetViews>
@@ -572,13 +630,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>200000</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>700000</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>236</v>
+      </c>
+      <c r="E4">
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>232</v>
+      </c>
+      <c r="E5">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>237</v>
+      </c>
+      <c r="E6">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>700000</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>306</v>
+      </c>
+      <c r="E7" s="3">
+        <v>175</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>700050</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>301</v>
+      </c>
+      <c r="E8" s="3">
+        <v>168</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>800050</v>
+      </c>
+      <c r="C9">
+        <v>200000</v>
+      </c>
+      <c r="D9">
+        <v>310</v>
+      </c>
+      <c r="E9" s="3">
+        <v>175</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1000050</v>
+      </c>
+      <c r="C10">
+        <v>400000</v>
+      </c>
+      <c r="D10">
+        <v>320</v>
+      </c>
+      <c r="E10" s="3">
+        <v>183</v>
+      </c>
+      <c r="F10">
+        <f>D10-E10</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>200000</v>
+      </c>
+      <c r="C11">
+        <v>500000</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>164</v>
+      </c>
+      <c r="F11">
+        <f>D11-E11</f>
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
